--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-15.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-15.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -555,21 +555,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
         <v>3</v>
       </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -577,10 +577,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -738,17 +738,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -2202,11 +2202,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I29" t="n">
         <v>21</v>
@@ -2227,7 +2227,7 @@
         <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -2446,11 +2446,11 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
         <v>12</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -2568,14 +2568,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J35" t="n">
         <v>9</v>
@@ -2593,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -2873,11 +2873,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I40" t="n">
         <v>17</v>
@@ -2898,7 +2898,7 @@
         <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -3651,22 +3651,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>VAN@TEX</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3682,16 +3682,16 @@
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
@@ -3712,47 +3712,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>15</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3795,25 +3795,25 @@
         <v>15</v>
       </c>
       <c r="I55" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3856,25 +3856,25 @@
         <v>15</v>
       </c>
       <c r="I56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J56" t="n">
         <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>4</v>
       </c>
       <c r="O57" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3975,28 +3975,28 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O58" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
@@ -4017,17 +4017,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4039,22 +4039,22 @@
         <v>13</v>
       </c>
       <c r="I59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
         <v>21</v>
@@ -4078,17 +4078,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4100,25 +4100,25 @@
         <v>13</v>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
@@ -4139,35 +4139,35 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>13</v>
       </c>
       <c r="I61" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J61" t="n">
         <v>5</v>
       </c>
       <c r="K61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -4176,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -4200,38 +4200,38 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>VAN@TEX</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J62" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>VAN@TEX</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4405,13 +4405,13 @@
         <v>7</v>
       </c>
       <c r="I65" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -4420,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4463,16 +4463,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4527,25 +4527,25 @@
         <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
@@ -4566,47 +4566,47 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>VAN@TEX</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
         <v>3</v>
       </c>
-      <c r="J68" t="n">
-        <v>4</v>
-      </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N68" t="n">
         <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
@@ -4871,35 +4871,35 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>VAN@TEX</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
         <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4954,7 +4954,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>VAN@TEX</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5018,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -5054,12 +5054,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5073,13 +5073,13 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5134,16 +5134,16 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5198,10 +5198,10 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Elmir Džafić</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5262,22 +5262,22 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -5298,47 +5298,47 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H80" t="n">
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Elmir Džafić</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,13 +5378,13 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -5396,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -5420,12 +5420,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Ayden Kelley</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5439,28 +5439,28 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O82" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -5481,17 +5481,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Eli Sparkman</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>VAN@TEX</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5500,16 +5500,16 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -5542,17 +5542,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -5576,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O84" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -5603,22 +5603,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Ayden Kelley</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
         <v>2</v>
@@ -5664,22 +5664,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Eli Sparkman</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>VAN@TEX</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -5725,22 +5725,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -5786,22 +5786,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5823,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Jaylon Dean-Vines</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -5908,26 +5908,26 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Amere Brown</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -5969,17 +5969,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5988,7 +5988,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -5997,19 +5997,19 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -6030,22 +6030,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Amere Brown</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -6091,22 +6091,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>VAN@TEX</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -6116,13 +6116,13 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
@@ -6152,32 +6152,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>VAN@TEX</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>5:09 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H94" t="n">
         <v>-1</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -6186,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -6213,17 +6213,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jaden Karuletwa</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>VAN@TEX</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6232,16 +6232,16 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -6274,17 +6274,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>VAN@TEX</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6293,10 +6293,10 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -6308,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -6335,17 +6335,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Jaden Karuletwa</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -6396,17 +6396,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Luke Northweather</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -6433,10 +6433,10 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -6457,46 +6457,168 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>AUB@MIZ</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Christ Essandoko</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>SC@ARK</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>Jasper Johnson</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>UK@LSU</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
         <v>-4</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
         <v>8</v>
       </c>
     </row>
@@ -6561,7 +6683,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -6600,7 +6722,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -6609,27 +6731,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-15.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-15.xlsx
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -4566,47 +4566,47 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -4627,47 +4627,47 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
